--- a/biology/Botanique/Ernest_Henry_Wilson/Ernest_Henry_Wilson.xlsx
+++ b/biology/Botanique/Ernest_Henry_Wilson/Ernest_Henry_Wilson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest Henry Wilson dit « le Chinois »[1](15 février 1876 – 15 octobre 1930), généralement connu sous le simple nom de E. H. Wilson, est un botaniste britannique qui introduisit un très grand nombre d’espèces de plantes d’Asie en Occident.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest Henry Wilson dit « le Chinois »(15 février 1876 – 15 octobre 1930), généralement connu sous le simple nom de E. H. Wilson, est un botaniste britannique qui introduisit un très grand nombre d’espèces de plantes d’Asie en Occident.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilson est né à Chipping Campden, dans le Gloucestershire (Angleterre). D’abord employé au sein d’une pépinière locale comme apprenti jardinier, il travaille par la suite au jardin botanique de Birmingham (en) en même temps qu’il suit les cours du soir à l’École technique de Birmingham, recevant le prix de la reine pour la botanique. En 1897, il commence à travailler aux jardins botaniques royaux de Kew, où il remporte le prix Hooker pour un essai sur les conifères. Il accepte ensuite un poste de collecteur de plantes chinoises pour le compte de l’entreprise James Veitch &amp; Fils.
 Wilson voyage donc par l’ouest en direction de la Chine, faisant une halte de cinq jours à l’arboretum Arnold de l’université Harvard à Boston (Massachusetts), où il fait la connaissance de Charles Sprague Sargent et étudie les façons de faire voyager graines et plantes sans dommages. Il traverse l’Amérique du Nord en train, et s’embarque à San Francisco pour atteindre Hong Kong le 3 juin 1899. Il sillonne pendant deux ans la province du Hubei à des fins de collecte et regagne l’Angleterre en avril 1902.
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1917 : Plantae Wilsonianae; an enumeration of the woody plants collected in western China for the Arnold arboretum of Harvard university during the years 1907, 1908, and 1910, par E. H. Wilson, publié par Charles Sprague Sargent. Les trois volumes sont consultables en version numérique sur le site botanicus.
 1912 : Vegetation in western China : a series of 500 photographs with index
